--- a/medicine/Pharmacie/Butylone/Butylone.xlsx
+++ b/medicine/Pharmacie/Butylone/Butylone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La butylone (βk-MBDB) est un psychostimulant entactogène ou empathogène, généralement considéré comme un nouveau produit de synthèse (NPS).
@@ -512,7 +524,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chimiquement, elle est proche de la cathinone. On parle parfois de bêta-céto-amphétamine, pour préciser qu'elle possède la structure générale d'une amphétamine, avec une fonction cétone sur le carbone en bêta par rapport à l'atome d'azote.
 Elle correspond à la version bêta-cétonique de la MBDB, c'est pourquoi on l'appelle parfois βk-MBDB.
@@ -544,7 +558,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La butylone comme la méthylone et la MBDB provoque vraisemblablement une libération de sérotonine, de noradrénaline et de dopamine dans le cerveau humain, expliquant ainsi ses effets psychotropes.
 </t>
@@ -575,11 +591,48 @@
           <t>Effets et conséquences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La butylone n'étant pas un produit très répandu, peu de recherches ont été effectuées. On ne connaît quasiment pas sa toxicité et sa pharmacologie.
-Effets recherchés
-désinhibition ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Butylone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Butylone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Effets et conséquences</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Effets recherchés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">désinhibition ;
 coupe-faim (anorexigène) ;
 sensations de bien-être, d'euphorie ;
 sensation d'empathie d'où sa qualification d'empathogène ou d'entactogène ;
